--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,728 +443,735 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Qatar Tourism</t>
+          <t>Kempinski Hotels</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Tourism Board</t>
+          <t>Marriott International</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Polish Tourism Organisation</t>
+          <t>Intui.travel transfer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Garden Hotel Company Ltd., Guangzhou</t>
+          <t>Tourism Seychelles</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KATARA HILLS &amp; MAYSAN DOHA LXR Hotels &amp; Resorts by Hilton</t>
+          <t>''Rustar Tourism" LLC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>''Rustar Tourism" LLC</t>
+          <t>7 South</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>100 Queen's Gate Hotel London, Curio Collection by Hilton</t>
+          <t>A LA CARTE PREMIUM FZCO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-Infotech System Co Ltd</t>
+          <t>ACCOR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201COMPANY</t>
+          <t>Accor - Mantis Collection</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024 HOSPITALITY EXPERIENCE</t>
+          <t>Africa Incoming</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25hours Hotel One Central &amp; SO/ Uptown Dubai</t>
+          <t>Airalo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2M TRAVEL EUROPE</t>
+          <t>Al Rais Travel Agencies LLC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2xceed</t>
+          <t>Amadeus</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>365 Adventures</t>
+          <t>Anantara Iko Mauritius Resort &amp; Villas</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4 seasons travel</t>
+          <t>Anantara Maia Seychelles Villas</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5 Diamond Experience</t>
+          <t>ArmLand Adventure &amp; Travel</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5K Travels</t>
+          <t>ARP Africa Travel - Pollmans Kenya</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7 South</t>
+          <t>Beachcomber Resorts &amp; Hotels</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>88 Destinations DMC</t>
+          <t>Berjaya Resorts Seychelles</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A LA CARTE PREMIUM FZCO</t>
+          <t>Blue Seven Technologies LLC / Travelclub.ae</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AAA Hotels &amp; Resorts Pvt Ltd</t>
+          <t>Blueberry Travel (Friends Travel and Tourism LLC)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Al Hokair Group</t>
+          <t>BWH Hotels</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baku Marriott Hotel Boulevard </t>
+          <t>Chatlyn GmbH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Abu Ali Travel</t>
+          <t>COMPASS ADVENTURES AND TRAVELS CO.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADNH Hotels - JW Marriott Hotel Marina, The Heritage Hotel Autograph Collection, Hotel Boulevard Autograph Collection</t>
+          <t>Corail Hélicoptères</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abundance Tourism</t>
+          <t>Cosmic Safaris Ltd</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Acampora hotels</t>
+          <t>Cresta Hotels</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Acampora Travel &amp; Acampora Hotels</t>
+          <t>Desert Gate Tourism LLC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ACCOR</t>
+          <t>Destination Connect Company Ltd</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Accor - Mantis Collection</t>
+          <t>EARTHBAGS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ACCOR MOROCCO</t>
+          <t>EDEN TOURS AND TRAVEL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Movenpick Hotel &amp; Residences Riyadh</t>
+          <t>EGYPTAIR AIRLINES Co.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ace Travels Pvt Ltd</t>
+          <t>Elite-Bookings.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Acheloo Viaggi</t>
+          <t>Eros Africa</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Across spain dmc &amp; leisure travel</t>
+          <t>ExploreTECH - The Digital Marketplace</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Action Flight - Amazing Air Adventures</t>
+          <t>Fairmont Hotels &amp; Resorts Kenya</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AD Ports Group</t>
+          <t>Flash Horizon Travel</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaaran Resorts </t>
+          <t>Four Seasons</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ADAMS BEACH HOTEL</t>
+          <t>Four Seasons Hotel Istanbul at the Bosphorus</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Adina Germany Holding GmbH &amp; Co. KG</t>
+          <t>Four Seasons Resort Mauritius at Anahita</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ADJARATOUR</t>
+          <t>Four Seasons Resorts Seychelles</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADNH Hotels- Park Hyatt Abu Dhabi Hotel And Villas, Radisson Blu Abu Dhabi Hotel &amp; Resort Corniche, Radisson Blu Al Ain </t>
+          <t>Global Passenger Network</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ADNH Hotels - Sofitel Dubai Jumeirah Beach, Kempinski Central Avenue Dubai, Kempinski The Boulevard Dubai</t>
+          <t>Green Motion and U-Save</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Adonis.com</t>
+          <t>Guest Flip</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Adore Maldives Pvt Ltd</t>
+          <t>Hilton</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Adventurati Outdoor</t>
+          <t>Hilton</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Adyen</t>
+          <t>Hilton Seychelles</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AEGEAN AIRLINES</t>
+          <t>Hilton Worldwide Services</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AERTiCKET , Global Ticket Factory</t>
+          <t>HOTELRACK - OTTILA INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Africa Incoming</t>
+          <t>HotelTime Solutions</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AIMS HEALTHCARE LLC</t>
+          <t>Hyatt Regency Addis Abba, Hyatt Regency Dar Es salaam, Park Hyatt Zanzibar</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AIN Hospital</t>
+          <t>i'way</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Air Arabia</t>
+          <t>Indian Hotels Company Limited</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Air Arabia</t>
+          <t>J A Resorts &amp; Hotels LLC</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Air Astana JSC</t>
+          <t>JW Marriott,  Le Meridien Ile Maurice,  The Westin Turtle Bay Resort &amp; Spa</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Air Charter Service</t>
+          <t>Kempinski Seychelles Resort Baie Lazare</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Air Chateau</t>
+          <t>Kenya Association of Tour Operators (KATO)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Air Connectivity Program (ACP)</t>
+          <t>Kerzner International</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AIR INDIA EXPRESS</t>
+          <t>Landmark Hotels &amp; Suites</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Airalo</t>
+          <t>Luxury Travel</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircairo</t>
+          <t>Masons Travel</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AIRCHINA DUBAI</t>
+          <t>Melia Hotels International</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Airman Inc.</t>
+          <t>Minor Hotel Group Limited</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Airport Transfer Cars Ltd</t>
+          <t>Neptune Hotels</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aitken Spence Travels ( PVT) Ltd</t>
+          <t xml:space="preserve">Newmark Hotels &amp; Reserves </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Ajman Hotel managed by Blazon Hotels</t>
+          <t>NOSY BE TOURISM BOARD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AJMAN SARAY -A LUXURY COLLECTION RESORT</t>
+          <t>Nucore Technologies LLC</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ajwaad Tourism</t>
+          <t>Oaktree Travels Zambia</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ak-Sai Travel</t>
+          <t>Ocean Blue Travel Seychelles</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Akbar Gulf Travels of India</t>
+          <t>Párisi Udvar Hotel Budapest - Unbound Collection</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AKHOM Consulting</t>
+          <t>Qasswa</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Akvaryum Istanbul</t>
+          <t>RateTiger - eRevMax</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Al Ain Place Hotel</t>
+          <t>Riu Hotels &amp; Resorts, Riu Dubai</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Al Ain Rotana</t>
+          <t>RIU Hotels &amp; Resorts, Riu Palace Mauritius, Riu Turquoise</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Al Ain zoo</t>
+          <t>Riya Travel &amp; Tourism LLC</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AL AREEN HOSPITALITY</t>
+          <t>RUKOKO SAFARIS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Al Badiah Transportation LLC</t>
+          <t>Safari Seekers Africa Ltd</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Al Bahar Hotel &amp; Resort</t>
+          <t>Safari Trails Ltd</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Al Bandar Rotana</t>
+          <t>Savoy Seychelles Resort &amp; Spa / Coral Strand Smart Choice Hotel</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Al Bustan Centre &amp; Residence</t>
+          <t>Sea Resorts Hotels</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Al Bustan Palace, a Ritz-Carlton Hotel</t>
+          <t>Serendib Travel Holidays</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Al Fokharia Tour Operator</t>
+          <t>SG Technology Consultants</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Al Habtoor Group, Al Habtoor Polo Resort &amp; Metropolitan Hotel Dubai</t>
+          <t>Shamba Travel Group</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Al Hadaf Travel and Tourism L.L.C (Dubai)</t>
+          <t>Sheraton Addis, A Luxury Collection Hotel</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Al Hamra Residence And Al Hamra Village Hotel</t>
+          <t>Springbok Atlas Tours &amp; Safaris</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Al Hanove Holidays Tours</t>
+          <t>Swissotel Al Ghurair</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Al Jaddaf Rotana</t>
+          <t>Tatabye Maldives Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Al Khalidiah Tourism</t>
+          <t>Techno Heaven Consultancy Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AL KHOORY HOTELS</t>
+          <t>The Ritz-Carlton, Dubai International Financial Center</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Al Khozama Investment company</t>
+          <t>The Travelbook Group</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Premiere Group of Hotel, Resort &amp; Apartments</t>
+          <t>TI Infotech Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AL MAYSARA</t>
+          <t>TIME Hotels Management L.L.C</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Al Messila, A Luxury Collection Resort and Spa Doha</t>
+          <t>Touch Down Africa</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Al Mulla Travels and Tourism</t>
+          <t>Travel Wild East Africa Ltd</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Al Qana</t>
+          <t>Traveller’s Choice Travel &amp; Tourism LLC</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Al Rais Travel Agencies LLC</t>
+          <t>Typsy</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Al Safer Travel &amp; Tours</t>
+          <t>V2 Travels - South African Travel Expert</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Al Seef Heritage Hotel Dubai Curio Collection by Hilton, Canopy by Hilton Dubai Al Seef, Hampton by Hilton Dubai Al Seef</t>
+          <t>Verteil Technologies Private Limited</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Al Tsunagaru Travel</t>
+          <t>Villa Rosa Kempinski Nairobi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Al Wathba, a Luxury Collection Desert Resort &amp; Spa, Abu Dhabi</t>
+          <t>Waldorf Astoria Bangkok</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Al Zorah Golf Club</t>
+          <t>Waldorf Astoria Seychelles Platte Island / Mango House Seychelles, LXR Hotels &amp; Resorts</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Al-Ahram Travel &amp; Tourism Company</t>
+          <t>WildTrek Safaris</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Al-Nawaair Events &amp; Tours - Iraq</t>
+          <t>Yiron Technologies Pvt Ltd.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AlaTours Travel</t>
+          <t>Zambia Luxury Lodge Collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Zambia Tourism Agency</t>
         </is>
       </c>
     </row>
